--- a/ProcessedData/conf_rbf_SVM_early_fusion_5.xlsx
+++ b/ProcessedData/conf_rbf_SVM_early_fusion_5.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2087329647609945</v>
+        <v>0.2271571674559728</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.320988103074239</v>
+        <v>0.3408247379460342</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1651873923767171</v>
+        <v>0.4320180945979929</v>
       </c>
       <c r="E2" t="n">
         <v>37</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7976770878717028</v>
+        <v>0.6981509781148848</v>
       </c>
       <c r="C3" t="n">
-        <v>1.245987569340683</v>
+        <v>0.2526194358770266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5394449641161942</v>
+        <v>0.04922958600808876</v>
       </c>
       <c r="E3" t="n">
         <v>37</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2086932555035978</v>
+        <v>0.228724592060854</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3158808107389104</v>
+        <v>0.3419333502255337</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.158958237221853</v>
+        <v>0.4293420577136122</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.04470892773109186</v>
+        <v>0.3835902633968746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1221229610490771</v>
+        <v>0.3645007166100043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0916175365831976</v>
+        <v>0.2519090199931213</v>
       </c>
       <c r="E5" t="n">
         <v>37</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1402745920698991</v>
+        <v>0.180131254062265</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4938376806686218</v>
+        <v>0.2894347999481423</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4126167227564655</v>
+        <v>0.5304339459895926</v>
       </c>
       <c r="E6" t="n">
         <v>37</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.44729213547762</v>
+        <v>0.1553374012052736</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5068798411214439</v>
+        <v>0.2944896276493892</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4894598656222595</v>
+        <v>0.550172971145337</v>
       </c>
       <c r="E7" t="n">
         <v>37</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.6653955315795786</v>
+        <v>0.224653802933854</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1211019652954532</v>
+        <v>0.4885640757247326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3292560587779417</v>
+        <v>0.2867821213414132</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.290817291081987</v>
+        <v>0.2197744523270009</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3171612811464117</v>
+        <v>0.3762037752744572</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03529245913510791</v>
+        <v>0.404021772398542</v>
       </c>
       <c r="E9" t="n">
         <v>37</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04731294291794183</v>
+        <v>0.3426395980575422</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0593942167156562</v>
+        <v>0.3155355239727637</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1439133015081424</v>
+        <v>0.3418248779696942</v>
       </c>
       <c r="E10" t="n">
         <v>37</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3166354249574404</v>
+        <v>0.2201918361666921</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3119347682469136</v>
+        <v>0.3744622474527043</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04895024123986641</v>
+        <v>0.4053459163806034</v>
       </c>
       <c r="E11" t="n">
         <v>37</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747392324</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3159205222091865</v>
+        <v>0.3419379941799878</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.158958236432048</v>
+        <v>0.4293529310807796</v>
       </c>
       <c r="E12" t="n">
         <v>37</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.2609208999888635</v>
+        <v>0.2214263520996936</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3255749061212024</v>
+        <v>0.3579259311941942</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.104850296586283</v>
+        <v>0.420647716706112</v>
       </c>
       <c r="E13" t="n">
         <v>37</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3883239553282392</v>
+        <v>0.1271963032497644</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6925337991580728</v>
+        <v>0.3404271848305747</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.284193779652407</v>
+        <v>0.5323765119196607</v>
       </c>
       <c r="E14" t="n">
         <v>37</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747154732</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3159205222867326</v>
+        <v>0.3419379941629699</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1589582365273521</v>
+        <v>0.4293529311215568</v>
       </c>
       <c r="E15" t="n">
         <v>37</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2087329677546969</v>
+        <v>0.2287090605256294</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3159205685607505</v>
+        <v>0.3419379840423208</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1589582932898533</v>
+        <v>0.4293529554320496</v>
       </c>
       <c r="E16" t="n">
         <v>37</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2087030138634916</v>
+        <v>0.2286986054445743</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3159629391119751</v>
+        <v>0.3419186171253588</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1590471396913044</v>
+        <v>0.4293827774300671</v>
       </c>
       <c r="E17" t="n">
         <v>37</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1652756859406677</v>
+        <v>0.2219835143885913</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.348571502792044</v>
+        <v>0.3200191315211189</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2540723264164214</v>
+        <v>0.4579973540902896</v>
       </c>
       <c r="E18" t="n">
         <v>37</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2092793538116659</v>
+        <v>0.2283608387279726</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3169080684848621</v>
+        <v>0.3419105348503032</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1594719076396691</v>
+        <v>0.429728626421724</v>
       </c>
       <c r="E19" t="n">
         <v>37</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01691640851214107</v>
+        <v>0.1967855478114339</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4561695200966588</v>
+        <v>0.2373058753500495</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.6309804896236836</v>
+        <v>0.5659085768385165</v>
       </c>
       <c r="E20" t="n">
         <v>37</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.322345619566887</v>
+        <v>0.03552434602949271</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.256877934784552</v>
+        <v>0.3075655911865138</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5913206740708072</v>
+        <v>0.6569100627839937</v>
       </c>
       <c r="E21" t="n">
         <v>37</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2087028066372705</v>
+        <v>0.2287138592420186</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3159131991572233</v>
+        <v>0.3419293858003169</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1589866658274825</v>
+        <v>0.4293567549576647</v>
       </c>
       <c r="E22" t="n">
         <v>37</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2087299731483534</v>
+        <v>0.2286542806226172</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3161001913923014</v>
+        <v>0.3418975771941309</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1591826215950876</v>
+        <v>0.4294481421832519</v>
       </c>
       <c r="E23" t="n">
         <v>37</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.2087329676211004</v>
+        <v>0.2287090747393198</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.3159205222081849</v>
+        <v>0.3419379941810944</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1589582364275626</v>
+        <v>0.4293529310795857</v>
       </c>
       <c r="E25" t="n">
         <v>37</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.3890379700334868</v>
+        <v>0.171331184997059</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.476225396329479</v>
+        <v>0.3621407877277271</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1603249395959676</v>
+        <v>0.466528027275214</v>
       </c>
       <c r="E26" t="n">
         <v>37</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.2087334697087266</v>
+        <v>0.2287090325497446</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3159205222098068</v>
+        <v>0.3419381664496816</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1589576018521987</v>
+        <v>0.4293528010005738</v>
       </c>
       <c r="E27" t="n">
         <v>37</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E28" t="n">
         <v>38</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2004585902588739</v>
+        <v>0.406115378439507</v>
       </c>
       <c r="C29" t="n">
-        <v>0.05458757956672655</v>
+        <v>0.2876824118490764</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2204934078643008</v>
+        <v>0.3062022097114168</v>
       </c>
       <c r="E29" t="n">
         <v>38</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.2089317389529487</v>
+        <v>0.2286912244665754</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.3159242634501496</v>
+        <v>0.3420053564540477</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.158711712356931</v>
+        <v>0.4293034190793769</v>
       </c>
       <c r="E30" t="n">
         <v>38</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.2539225928225619</v>
+        <v>0.189314496740626</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4398783063714107</v>
+        <v>0.3326014745452167</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2397980911177529</v>
+        <v>0.4780840287141571</v>
       </c>
       <c r="E31" t="n">
         <v>38</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090711022591</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.315920534079347</v>
+        <v>0.3419379915729818</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1589582510310441</v>
+        <v>0.4293529373247588</v>
       </c>
       <c r="E32" t="n">
         <v>38</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2087329676182274</v>
+        <v>0.2287090747396558</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3159205222078773</v>
+        <v>0.3419379941801862</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1589582364307633</v>
+        <v>0.4293529310801578</v>
       </c>
       <c r="E33" t="n">
         <v>38</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2081615747991708</v>
+        <v>0.2291059125723789</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.3147838710415291</v>
+        <v>0.341999133907722</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1582429943699784</v>
+        <v>0.4288949535198991</v>
       </c>
       <c r="E34" t="n">
         <v>38</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5532916346185338</v>
+        <v>0.6105552780188532</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6529999298980566</v>
+        <v>0.2796444296486245</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1996454446485443</v>
+        <v>0.1098002923325223</v>
       </c>
       <c r="E35" t="n">
         <v>38</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.2087329666860303</v>
+        <v>0.228641219248184</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3161419995991914</v>
+        <v>0.3418894097949204</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1592303182601197</v>
+        <v>0.4294693709568953</v>
       </c>
       <c r="E36" t="n">
         <v>38</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1316181654444612</v>
+        <v>0.2508862241681133</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2670224704487879</v>
+        <v>0.3210312581158405</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2266003869472724</v>
+        <v>0.4280825177160463</v>
       </c>
       <c r="E37" t="n">
         <v>38</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.2097002005932173</v>
+        <v>0.2285355624323631</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3162217757584942</v>
+        <v>0.3422039927963939</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.158105060444645</v>
+        <v>0.4292604447712431</v>
       </c>
       <c r="E38" t="n">
         <v>38</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1695664529193647</v>
+        <v>0.2122803459472349</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3790010891466994</v>
+        <v>0.316121959176849</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2788147990033366</v>
+        <v>0.4715976948759159</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.2080812491011321</v>
+        <v>0.2213059764647845</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3402944571636413</v>
+        <v>0.3362385031249738</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1902796321601692</v>
+        <v>0.4424555204102416</v>
       </c>
       <c r="E40" t="n">
         <v>38</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1679830098866457</v>
+        <v>0.2244998425665657</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3406010606121024</v>
+        <v>0.3262476074733701</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2221828975291756</v>
+        <v>0.4492525499600644</v>
       </c>
       <c r="E41" t="n">
         <v>38</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.6406426664173864</v>
+        <v>0.04715949389489198</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.187857974483027</v>
+        <v>0.1975229345713857</v>
       </c>
       <c r="D42" t="n">
-        <v>-1.002421721518584</v>
+        <v>0.755317571533722</v>
       </c>
       <c r="E42" t="n">
         <v>38</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E43" t="n">
         <v>38</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.680777227818822</v>
+        <v>0.1517484733000622</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.4789801707646739</v>
+        <v>0.4856562791427216</v>
       </c>
       <c r="D44" t="n">
-        <v>0.25920034326579</v>
+        <v>0.3625952475572162</v>
       </c>
       <c r="E44" t="n">
         <v>38</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3761295485353212</v>
+        <v>0.4947208793008188</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2301067493338559</v>
+        <v>0.2680060708043337</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2155090264020093</v>
+        <v>0.2372730498948477</v>
       </c>
       <c r="E45" t="n">
         <v>38</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1169689802421142</v>
+        <v>0.253585939344775</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.2637785957493471</v>
+        <v>0.3252145697622139</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1949183475588014</v>
+        <v>0.4211994908930113</v>
       </c>
       <c r="E46" t="n">
         <v>38</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2087329676145159</v>
+        <v>0.228677084732279</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3160249349686728</v>
+        <v>0.3419150902643288</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1590865054984175</v>
+        <v>0.4294078250033919</v>
       </c>
       <c r="E47" t="n">
         <v>38</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E48" t="n">
         <v>38</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2081111896129292</v>
+        <v>0.228180967698112</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3178147165143514</v>
+        <v>0.3413133373929914</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1620490205207602</v>
+        <v>0.4305056949088966</v>
       </c>
       <c r="E49" t="n">
         <v>38</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E50" t="n">
         <v>38</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2134143878733055</v>
+        <v>0.2196157610972256</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3443504815101</v>
+        <v>0.3363814282043501</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1925424967723243</v>
+        <v>0.4440028106984242</v>
       </c>
       <c r="E51" t="n">
         <v>38</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2090499250222352</v>
+        <v>0.2288693969711989</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.3153144226904583</v>
+        <v>0.3422066487408706</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1576729868900031</v>
+        <v>0.4289239542879301</v>
       </c>
       <c r="E52" t="n">
         <v>38</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.2087454144954175</v>
+        <v>0.2286572293858498</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.3160863277716956</v>
+        <v>0.3419058780498266</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1591462735587358</v>
+        <v>0.4294368925643238</v>
       </c>
       <c r="E53" t="n">
         <v>38</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.9051131549762326</v>
+        <v>0.1850054691988661</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2043633433338083</v>
+        <v>0.4699028820717355</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1352077827180881</v>
+        <v>0.3450916487293983</v>
       </c>
       <c r="E54" t="n">
         <v>38</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.2460396506697476</v>
+        <v>0.5285564197315434</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5213523561931066</v>
+        <v>0.3155245045058214</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0518531716694649</v>
+        <v>0.1559190757626353</v>
       </c>
       <c r="E55" t="n">
         <v>39</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.106094032940943</v>
+        <v>0.7680121169168227</v>
       </c>
       <c r="C56" t="n">
-        <v>1.201279368714364</v>
+        <v>0.2028827759094589</v>
       </c>
       <c r="D56" t="n">
-        <v>1.038892458538466</v>
+        <v>0.02910510717371858</v>
       </c>
       <c r="E56" t="n">
         <v>39</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8921414935141669</v>
+        <v>0.7202177615645218</v>
       </c>
       <c r="C57" t="n">
-        <v>1.156868001275862</v>
+        <v>0.2478656126058851</v>
       </c>
       <c r="D57" t="n">
-        <v>1.131269401090901</v>
+        <v>0.03191662582959323</v>
       </c>
       <c r="E57" t="n">
         <v>39</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.137523238575272</v>
+        <v>0.7772971446165481</v>
       </c>
       <c r="C58" t="n">
-        <v>1.363373558733302</v>
+        <v>0.1965371441863763</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9856288088888437</v>
+        <v>0.02616571119707567</v>
       </c>
       <c r="E58" t="n">
         <v>39</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1949112247153419</v>
+        <v>0.5187221835394411</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6677174133336576</v>
+        <v>0.3688558931609094</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3698416553519276</v>
+        <v>0.1124219232996495</v>
       </c>
       <c r="E59" t="n">
         <v>39</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8313923777224481</v>
+        <v>0.7075398043890101</v>
       </c>
       <c r="C60" t="n">
-        <v>1.36964720121215</v>
+        <v>0.2533963595716874</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7554592893720108</v>
+        <v>0.03906383603930246</v>
       </c>
       <c r="E60" t="n">
         <v>39</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.091913012665001</v>
+        <v>0.7648153818711219</v>
       </c>
       <c r="C61" t="n">
-        <v>1.237945419082839</v>
+        <v>0.2024864550391721</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8496194042004185</v>
+        <v>0.03269816308970604</v>
       </c>
       <c r="E61" t="n">
         <v>39</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9161116980216537</v>
+        <v>0.7193793037669194</v>
       </c>
       <c r="C62" t="n">
-        <v>1.02278757191783</v>
+        <v>0.2270796909458561</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5302785033597679</v>
+        <v>0.05354100528722462</v>
       </c>
       <c r="E62" t="n">
         <v>39</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.04309650335617</v>
+        <v>0.7368124607268746</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8168583801300443</v>
+        <v>0.1862474370456614</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0957246125305346</v>
+        <v>0.07694010222746391</v>
       </c>
       <c r="E63" t="n">
         <v>39</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.020546863207677</v>
+        <v>0.7481778246674059</v>
       </c>
       <c r="C64" t="n">
-        <v>1.187023204562686</v>
+        <v>0.2153590883111175</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8166123635429818</v>
+        <v>0.03646308702147642</v>
       </c>
       <c r="E64" t="n">
         <v>39</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9948622976193922</v>
+        <v>0.7480229768972905</v>
       </c>
       <c r="C65" t="n">
-        <v>1.330482397287056</v>
+        <v>0.2280843741414906</v>
       </c>
       <c r="D65" t="n">
-        <v>1.241038480565201</v>
+        <v>0.02389264896121889</v>
       </c>
       <c r="E65" t="n">
         <v>39</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.3389273796154586</v>
+        <v>0.2992881293529184</v>
       </c>
       <c r="C66" t="n">
-        <v>0.007095640731225872</v>
+        <v>0.4544390729501007</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3934728599871014</v>
+        <v>0.2462727976969808</v>
       </c>
       <c r="E66" t="n">
         <v>39</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.008631230260965</v>
+        <v>0.750998615498928</v>
       </c>
       <c r="C67" t="n">
-        <v>1.389730357940489</v>
+        <v>0.2238590795747951</v>
       </c>
       <c r="D67" t="n">
-        <v>1.125352672278983</v>
+        <v>0.02514230492627681</v>
       </c>
       <c r="E67" t="n">
         <v>39</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1967015353396812</v>
+        <v>0.4023025044914045</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04560458457808431</v>
+        <v>0.3021963830767937</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.09296654310436056</v>
+        <v>0.2955011124318019</v>
       </c>
       <c r="E68" t="n">
         <v>39</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.906540980579323</v>
+        <v>0.7138425727422149</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9569541665224571</v>
+        <v>0.2312085042521458</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6060178422162369</v>
+        <v>0.05494892300563931</v>
       </c>
       <c r="E69" t="n">
         <v>39</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.218195218366033</v>
+        <v>0.2375374248198883</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.2842146678495257</v>
+        <v>0.3513179614518172</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.1122627599257604</v>
+        <v>0.4111446137282945</v>
       </c>
       <c r="E70" t="n">
         <v>39</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7850988381632477</v>
+        <v>0.6835734129791441</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9195815439014664</v>
+        <v>0.2582964705941407</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6739373463807297</v>
+        <v>0.05813011642671554</v>
       </c>
       <c r="E71" t="n">
         <v>39</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.5000217198807602</v>
+        <v>0.3154024434512936</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3295546473957401</v>
+        <v>0.5246753984722783</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5747497362234038</v>
+        <v>0.159922158076428</v>
       </c>
       <c r="E72" t="n">
         <v>39</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1152063719805589</v>
+        <v>0.4800951697088903</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4994864523122035</v>
+        <v>0.3830309951775957</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3714707927352184</v>
+        <v>0.1368738351135138</v>
       </c>
       <c r="E73" t="n">
         <v>39</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4703477977898298</v>
+        <v>0.5993502129975531</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8419936683107997</v>
+        <v>0.3276402807044928</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6514820049533796</v>
+        <v>0.07300950629795418</v>
       </c>
       <c r="E74" t="n">
         <v>39</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.083591750808481</v>
+        <v>0.7603597322136203</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9189406893902642</v>
+        <v>0.1690234478669921</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1422592183306038</v>
+        <v>0.07061681991938762</v>
       </c>
       <c r="E75" t="n">
         <v>39</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.009573130725761</v>
+        <v>0.7441302571174998</v>
       </c>
       <c r="C76" t="n">
-        <v>1.055154192182889</v>
+        <v>0.1995418999241417</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2639661617374319</v>
+        <v>0.05632784295835846</v>
       </c>
       <c r="E76" t="n">
         <v>39</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.486135464448442</v>
+        <v>0.1604849813154977</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.5377922413468569</v>
+        <v>0.4756326646748417</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2917459395707372</v>
+        <v>0.3638823540096608</v>
       </c>
       <c r="E77" t="n">
         <v>39</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.200434871250175</v>
+        <v>0.7778884560851914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9831787057237812</v>
+        <v>0.1672881789665241</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2458912625675252</v>
+        <v>0.05482336494828442</v>
       </c>
       <c r="E78" t="n">
         <v>39</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1969570442219745</v>
+        <v>0.2246319101926136</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.3324051746977882</v>
+        <v>0.3348196182427456</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.191343074197548</v>
+        <v>0.4405484715646409</v>
       </c>
       <c r="E79" t="n">
         <v>39</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E80" t="n">
         <v>39</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.7548753952215836</v>
+        <v>0.2522940437542873</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2145979261521122</v>
+        <v>0.5869923729239276</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7514590740612676</v>
+        <v>0.1607135833217852</v>
       </c>
       <c r="E81" t="n">
         <v>39</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3359602344550104</v>
+        <v>0.5245452755849573</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4126843864623064</v>
+        <v>0.3178225257159401</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2068932538808296</v>
+        <v>0.1576321986991024</v>
       </c>
       <c r="E82" t="n">
         <v>39</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.354407067433537</v>
+        <v>0.8164919621515205</v>
       </c>
       <c r="C83" t="n">
-        <v>1.264450927940777</v>
+        <v>0.1475236537191232</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3583706505572393</v>
+        <v>0.03598438412935629</v>
       </c>
       <c r="E83" t="n">
         <v>39</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3590965064920831</v>
+        <v>0.5622381339610475</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6994640821584398</v>
+        <v>0.3411223653201992</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4855476035929658</v>
+        <v>0.09663950071875352</v>
       </c>
       <c r="E84" t="n">
         <v>39</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.102253850361926</v>
+        <v>0.7482118421931875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8179058695986395</v>
+        <v>0.1766170887416128</v>
       </c>
       <c r="D85" t="n">
-        <v>0.08806039131197196</v>
+        <v>0.07517106906519966</v>
       </c>
       <c r="E85" t="n">
         <v>39</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6617675977987775</v>
+        <v>0.6619232601867987</v>
       </c>
       <c r="C86" t="n">
-        <v>1.054395948415975</v>
+        <v>0.270394315250628</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3312349507319496</v>
+        <v>0.06768242456257302</v>
       </c>
       <c r="E86" t="n">
         <v>39</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.06281745865765195</v>
+        <v>0.3054022680248283</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1249820379474079</v>
+        <v>0.3331986190650413</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1145261844045517</v>
+        <v>0.3613991129101303</v>
       </c>
       <c r="E87" t="n">
         <v>39</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4229601376270906</v>
+        <v>0.2816165176899974</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.04418041348539842</v>
+        <v>0.394311138222619</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01954933371671666</v>
+        <v>0.3240723440873834</v>
       </c>
       <c r="E88" t="n">
         <v>39</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.110132106986253</v>
+        <v>0.7664598242370489</v>
       </c>
       <c r="C89" t="n">
-        <v>1.034400888985493</v>
+        <v>0.1761824494729674</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1078805046306927</v>
+        <v>0.05735772628998347</v>
       </c>
       <c r="E89" t="n">
         <v>39</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.225130914164643</v>
+        <v>0.7892308132513454</v>
       </c>
       <c r="C90" t="n">
-        <v>1.05974811668324</v>
+        <v>0.1586420460595844</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1098614379539647</v>
+        <v>0.05212714068907034</v>
       </c>
       <c r="E90" t="n">
         <v>39</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.133646566611491</v>
+        <v>0.7707389000198134</v>
       </c>
       <c r="C91" t="n">
-        <v>1.106095171358305</v>
+        <v>0.1808227320714164</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3278871097928056</v>
+        <v>0.04843836790877017</v>
       </c>
       <c r="E91" t="n">
         <v>39</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1218813371330976</v>
+        <v>0.2618005944527809</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.2322271981210604</v>
+        <v>0.3328449564495278</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1627950844105443</v>
+        <v>0.405354449097691</v>
       </c>
       <c r="E92" t="n">
         <v>40</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.2795256990284722</v>
+        <v>0.3612557727690707</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3080888893592894</v>
+        <v>0.4752816649400714</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5395726749763377</v>
+        <v>0.1634625622908576</v>
       </c>
       <c r="E93" t="n">
         <v>40</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.358398897204575</v>
+        <v>0.0349588513972398</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.105062054728821</v>
+        <v>0.2092271549284374</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.000169439164284</v>
+        <v>0.7558139936743228</v>
       </c>
       <c r="E94" t="n">
         <v>40</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.2087329676186268</v>
+        <v>0.2287090747395279</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802537</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1589582364306474</v>
+        <v>0.4293529310802182</v>
       </c>
       <c r="E95" t="n">
         <v>40</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1740824515237998</v>
+        <v>0.2341724714145084</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.3082588601751799</v>
+        <v>0.3352529471054143</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1751496863277792</v>
+        <v>0.4305745814800771</v>
       </c>
       <c r="E96" t="n">
         <v>40</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E97" t="n">
         <v>40</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395391</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3159205222081854</v>
+        <v>0.3419379941802074</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1589582364308181</v>
+        <v>0.4293529310802533</v>
       </c>
       <c r="E98" t="n">
         <v>40</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.2252269081148892</v>
+        <v>0.2271728742329087</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.3165757198036501</v>
+        <v>0.3486053857829166</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.1330861078189936</v>
+        <v>0.4242217399841746</v>
       </c>
       <c r="E99" t="n">
         <v>40</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.2083970716089351</v>
+        <v>0.2277917272806892</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3190075636432855</v>
+        <v>0.3411501886110942</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1631496648256083</v>
+        <v>0.4310580841082163</v>
       </c>
       <c r="E100" t="n">
         <v>40</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E101" t="n">
         <v>40</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.405045256879736</v>
+        <v>0.03350366120280172</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.123128982235337</v>
+        <v>0.2171362561932973</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.9652260069223761</v>
+        <v>0.7493600826039013</v>
       </c>
       <c r="E102" t="n">
         <v>40</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.208732968408979</v>
+        <v>0.2287090746731165</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379944514217</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.1589582354317701</v>
+        <v>0.4293529308754617</v>
       </c>
       <c r="E103" t="n">
         <v>40</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E104" t="n">
         <v>40</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E105" t="n">
         <v>40</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2087329676184921</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E106" t="n">
         <v>40</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E107" t="n">
         <v>40</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.2084155232813663</v>
+        <v>0.2290613657832889</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.3148624129880589</v>
+        <v>0.3420884987898224</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1579173163902685</v>
+        <v>0.4288501354268888</v>
       </c>
       <c r="E108" t="n">
         <v>40</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.214919263748424</v>
+        <v>0.2283450730649899</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.3154061525761451</v>
+        <v>0.3441774051072443</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1505031180796863</v>
+        <v>0.4274775218277655</v>
       </c>
       <c r="E109" t="n">
         <v>40</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E110" t="n">
         <v>40</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E111" t="n">
         <v>40</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E112" t="n">
         <v>40</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.3001582793015325</v>
+        <v>0.4710806379726453</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2122676421304931</v>
+        <v>0.3107307674253526</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1032966650454203</v>
+        <v>0.218188594602002</v>
       </c>
       <c r="E113" t="n">
         <v>40</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E114" t="n">
         <v>40</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.8594441696325169</v>
+        <v>0.1803095532423871</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.2125985250299094</v>
+        <v>0.5930642763243961</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7485869345669506</v>
+        <v>0.2266261704332168</v>
       </c>
       <c r="E115" t="n">
         <v>40</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1261031141499011</v>
+        <v>0.3728942580934284</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1333640529337476</v>
+        <v>0.3709123749434404</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03885534304703175</v>
+        <v>0.256193366963131</v>
       </c>
       <c r="E116" t="n">
         <v>40</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1967612098928732</v>
+        <v>0.229556390214087</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.3164046348671042</v>
+        <v>0.3376323308789361</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.1752256113696785</v>
+        <v>0.4328112789069768</v>
       </c>
       <c r="E117" t="n">
         <v>40</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090551480652</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3159205861498255</v>
+        <v>0.3419379801370694</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.1589583150711762</v>
+        <v>0.4293529647148651</v>
       </c>
       <c r="E118" t="n">
         <v>40</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E119" t="n">
         <v>40</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747394445</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.3159205222084942</v>
+        <v>0.3419379941801395</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.158958236431198</v>
+        <v>0.4293529310804158</v>
       </c>
       <c r="E120" t="n">
         <v>40</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E121" t="n">
         <v>40</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E122" t="n">
         <v>40</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.2714054375479172</v>
+        <v>0.192907152982601</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.4223775864066688</v>
+        <v>0.3395409976198856</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2115845267139028</v>
+        <v>0.4675518493975137</v>
       </c>
       <c r="E123" t="n">
         <v>40</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.2064451354875604</v>
+        <v>0.2275937099826117</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.3201837782806942</v>
+        <v>0.3402321662670999</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1670130653610399</v>
+        <v>0.4321741237502882</v>
       </c>
       <c r="E124" t="n">
         <v>41</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.2087358099398754</v>
+        <v>0.22870883590982</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.3159205222079991</v>
+        <v>0.3419389694594764</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1589546437563016</v>
+        <v>0.4293521946307035</v>
       </c>
       <c r="E125" t="n">
         <v>41</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.2620611968025267</v>
+        <v>0.3771711985329482</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4575740992498518</v>
+        <v>0.5182039384486379</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9672286264441295</v>
+        <v>0.1046248630184139</v>
       </c>
       <c r="E126" t="n">
         <v>41</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.6775278700121873</v>
+        <v>0.2469674700367295</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.005293777882800277</v>
+        <v>0.4803491701731282</v>
       </c>
       <c r="D127" t="n">
-        <v>0.256446195265923</v>
+        <v>0.2726833597901422</v>
       </c>
       <c r="E127" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.219042740407083</v>
+        <v>0.2112703626958547</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.3706910937811995</v>
+        <v>0.3325350144666736</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.217272811364472</v>
+        <v>0.4561946228374716</v>
       </c>
       <c r="E128" t="n">
         <v>41</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.347568555992554</v>
+        <v>0.2945747732118029</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.005779040258805213</v>
+        <v>0.4930636852991567</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6595014465862539</v>
+        <v>0.2123615414890405</v>
       </c>
       <c r="E129" t="n">
         <v>41</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.064086800369153</v>
+        <v>0.7667413806847926</v>
       </c>
       <c r="C130" t="n">
-        <v>1.081238643755293</v>
+        <v>0.1731925135662981</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.1203757333231328</v>
+        <v>0.06006610574890902</v>
       </c>
       <c r="E130" t="n">
         <v>41</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5298296505010573</v>
+        <v>0.5300687220374225</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2692052022739322</v>
+        <v>0.2733019282721584</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1171018392892935</v>
+        <v>0.1966293496904191</v>
       </c>
       <c r="E131" t="n">
         <v>41</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.3208695194972772</v>
+        <v>0.1959208240139279</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.398297997597388</v>
+        <v>0.3570602559283394</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1459367909020104</v>
+        <v>0.4470189200577329</v>
       </c>
       <c r="E132" t="n">
         <v>41</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-1.175699819272687</v>
+        <v>0.1907770282668632</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5236656043693945</v>
+        <v>0.689655615048555</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8562587503801656</v>
+        <v>0.1195673566845815</v>
       </c>
       <c r="E133" t="n">
         <v>41</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8546155556860149</v>
+        <v>0.7070319773295806</v>
       </c>
       <c r="C134" t="n">
-        <v>1.035467628041145</v>
+        <v>0.2338223546127605</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3925061615189683</v>
+        <v>0.05914566805765887</v>
       </c>
       <c r="E134" t="n">
         <v>41</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.2310268123010744</v>
+        <v>0.2270258901907658</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.3152455586462287</v>
+        <v>0.3497803172233274</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.129925920157177</v>
+        <v>0.4231937925859067</v>
       </c>
       <c r="E135" t="n">
         <v>41</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E136" t="n">
         <v>41</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.2087329676214162</v>
+        <v>0.2287090747392936</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941812106</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1589582364271225</v>
+        <v>0.4293529310794955</v>
       </c>
       <c r="E137" t="n">
         <v>41</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.1086116477017266</v>
+        <v>0.2686964239169605</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.216081508513651</v>
+        <v>0.3317721344885411</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1593063603510614</v>
+        <v>0.3995314415944984</v>
       </c>
       <c r="E138" t="n">
         <v>41</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E139" t="n">
         <v>41</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.282137409691967</v>
+        <v>0.206068070472019</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.3735725177029185</v>
+        <v>0.356859170961014</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.126251469154973</v>
+        <v>0.437072758566967</v>
       </c>
       <c r="E140" t="n">
         <v>41</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8312626276596975</v>
+        <v>0.6854972283679057</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7841160474991026</v>
+        <v>0.2476314822224923</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6777544635652976</v>
+        <v>0.06687128940960181</v>
       </c>
       <c r="E141" t="n">
         <v>41</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.2464323353447507</v>
+        <v>0.1966598637414957</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.4164298407033146</v>
+        <v>0.339043057305588</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.2024933176782325</v>
+        <v>0.4642970789529162</v>
       </c>
       <c r="E142" t="n">
         <v>41</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E143" t="n">
         <v>41</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.3772030921176232</v>
+        <v>0.1144509002308327</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.7064613466151162</v>
+        <v>0.2510556344735219</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.6835443244832804</v>
+        <v>0.6344934652956452</v>
       </c>
       <c r="E144" t="n">
         <v>41</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.3376608421004771</v>
+        <v>0.2132882599983871</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.326410276292333</v>
+        <v>0.3906053813568537</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01156305907942773</v>
+        <v>0.396106358644759</v>
       </c>
       <c r="E145" t="n">
         <v>41</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.2087329686939702</v>
+        <v>0.2287090746491717</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379945492492</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1589582350713396</v>
+        <v>0.429352930801579</v>
       </c>
       <c r="E146" t="n">
         <v>41</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.370844627287947</v>
+        <v>0.5721761010601391</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8434547579181267</v>
+        <v>0.3584852879816035</v>
       </c>
       <c r="D147" t="n">
-        <v>0.7877952174129693</v>
+        <v>0.0693386109582575</v>
       </c>
       <c r="E147" t="n">
         <v>41</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.2087329691348826</v>
+        <v>0.2287090746121186</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379947004376</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1589582345145525</v>
+        <v>0.4293529306874436</v>
       </c>
       <c r="E148" t="n">
         <v>41</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.205136978479643</v>
+        <v>0.2014143011486662</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.4071177970220542</v>
+        <v>0.320713989952879</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.2739691834408928</v>
+        <v>0.4778717088984547</v>
       </c>
       <c r="E149" t="n">
         <v>41</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2087329676184922</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802075</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1589582364308176</v>
+        <v>0.4293529310802531</v>
       </c>
       <c r="E150" t="n">
         <v>41</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.20872317580111</v>
+        <v>0.2287131681557704</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.3159098587833965</v>
+        <v>0.3419370462993188</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.158957134728792</v>
+        <v>0.4293497855449112</v>
       </c>
       <c r="E151" t="n">
         <v>41</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.2087340315592701</v>
+        <v>0.2287089853389401</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.3159205222081534</v>
+        <v>0.3419383592136903</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1589568917934198</v>
+        <v>0.4293526554473696</v>
       </c>
       <c r="E152" t="n">
         <v>41</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.2662917383205801</v>
+        <v>0.3766200360740075</v>
       </c>
       <c r="C153" t="n">
-        <v>0.438849127764268</v>
+        <v>0.4879389463475799</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6181613858430747</v>
+        <v>0.1354410175784126</v>
       </c>
       <c r="E153" t="n">
         <v>41</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9756046955209798</v>
+        <v>0.7386433832625995</v>
       </c>
       <c r="C154" t="n">
-        <v>1.174754115968772</v>
+        <v>0.2140183443590985</v>
       </c>
       <c r="D154" t="n">
-        <v>0.46922656723364</v>
+        <v>0.04733827237830218</v>
       </c>
       <c r="E154" t="n">
         <v>41</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.2087329676184929</v>
+        <v>0.2287090747395392</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.315920522208185</v>
+        <v>0.3419379941802078</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1589582364308167</v>
+        <v>0.429352931080253</v>
       </c>
       <c r="E155" t="n">
         <v>42</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6474796949666589</v>
+        <v>0.6125058768742266</v>
       </c>
       <c r="C156" t="n">
-        <v>0.463173655433229</v>
+        <v>0.2243064553597999</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.2919334554112352</v>
+        <v>0.1631876677659733</v>
       </c>
       <c r="E156" t="n">
         <v>42</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.4080726324704268</v>
+        <v>0.2800878998555881</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.05573225440083041</v>
+        <v>0.3986089940334651</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01816372436952657</v>
+        <v>0.3213031061109466</v>
       </c>
       <c r="E157" t="n">
         <v>42</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.016889368537973</v>
+        <v>0.7288023322476149</v>
       </c>
       <c r="C158" t="n">
-        <v>0.82101152676376</v>
+        <v>0.2011478782175121</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3512574908101037</v>
+        <v>0.07004978953487299</v>
       </c>
       <c r="E158" t="n">
         <v>42</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.1689376580156534</v>
+        <v>0.1505778483807262</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.5761827060478804</v>
+        <v>0.2277271190687025</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.7476988410036187</v>
+        <v>0.6216950325505713</v>
       </c>
       <c r="E159" t="n">
         <v>42</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.143719446831548</v>
+        <v>0.188142182333071</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6497925066192578</v>
+        <v>0.7431963890649611</v>
       </c>
       <c r="D160" t="n">
-        <v>1.372224560802087</v>
+        <v>0.06866142860196812</v>
       </c>
       <c r="E160" t="n">
         <v>42</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.400343469387643</v>
+        <v>0.3552227633012888</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7155904061777224</v>
+        <v>0.5455043111670168</v>
       </c>
       <c r="D161" t="n">
-        <v>0.7763664811006248</v>
+        <v>0.09927292553169427</v>
       </c>
       <c r="E161" t="n">
         <v>42</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.3323388563133517</v>
+        <v>0.3751021084662456</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6406382755378202</v>
+        <v>0.5007050572370705</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5123449546702359</v>
+        <v>0.1241928342966837</v>
       </c>
       <c r="E162" t="n">
         <v>42</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.8311209862108854</v>
+        <v>0.2236987276395709</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0106453525304484</v>
+        <v>0.5342660960873038</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4328713864701997</v>
+        <v>0.2420351762731257</v>
       </c>
       <c r="E163" t="n">
         <v>42</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.1545388319787102</v>
+        <v>0.4299653892012935</v>
       </c>
       <c r="C164" t="n">
-        <v>0.1594972834220651</v>
+        <v>0.3262961535327868</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03045031776884638</v>
+        <v>0.2437384572659198</v>
       </c>
       <c r="E164" t="n">
         <v>42</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.364250701552855</v>
+        <v>0.3133898958185312</v>
       </c>
       <c r="C165" t="n">
-        <v>0.09697417980870199</v>
+        <v>0.4617007488770701</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3942632674734439</v>
+        <v>0.2249093553043985</v>
       </c>
       <c r="E165" t="n">
         <v>42</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.03828849355328148</v>
+        <v>0.2187156793499272</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.3856217184703941</v>
+        <v>0.2782436975686999</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.4208732377453083</v>
+        <v>0.5030406230813728</v>
       </c>
       <c r="E166" t="n">
         <v>42</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.1634023521796137</v>
+        <v>0.1991077019079589</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.4181476343338285</v>
+        <v>0.284801246785594</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.4407078264221405</v>
+        <v>0.5160910513064468</v>
       </c>
       <c r="E167" t="n">
         <v>42</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.1096769789562102</v>
+        <v>0.2488240651648584</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.2790581026152549</v>
+        <v>0.3097559678693201</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.2775048422969069</v>
+        <v>0.4414199669658215</v>
       </c>
       <c r="E168" t="n">
         <v>42</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.2472520978165498</v>
+        <v>0.2099939644746404</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.3685225421354375</v>
+        <v>0.3444889737810677</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1703292175582032</v>
+        <v>0.4455170617442919</v>
       </c>
       <c r="E169" t="n">
         <v>42</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.4277846598145614</v>
+        <v>0.3309126756029142</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3762399974516232</v>
+        <v>0.5592241151755282</v>
       </c>
       <c r="D170" t="n">
-        <v>1.036901096484796</v>
+        <v>0.1098632092215577</v>
       </c>
       <c r="E170" t="n">
         <v>42</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>0.02789004597150729</v>
+        <v>0.4744764868752014</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7648295579479568</v>
+        <v>0.472125921503798</v>
       </c>
       <c r="D171" t="n">
-        <v>1.378648525049016</v>
+        <v>0.05339759162100058</v>
       </c>
       <c r="E171" t="n">
         <v>42</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1574394180446277</v>
+        <v>0.4208831619443223</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6936852504214833</v>
+        <v>0.4822009790212372</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7388220154686428</v>
+        <v>0.0969158590344405</v>
       </c>
       <c r="E172" t="n">
         <v>42</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.2326603652157595</v>
+        <v>0.2128020584529055</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.3624933628620984</v>
+        <v>0.3402377350009948</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1840517020564258</v>
+        <v>0.4469602065460994</v>
       </c>
       <c r="E173" t="n">
         <v>42</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.144006461448143</v>
+        <v>0.7790113568299701</v>
       </c>
       <c r="C174" t="n">
-        <v>1.322937456840013</v>
+        <v>0.1973246826791573</v>
       </c>
       <c r="D174" t="n">
-        <v>1.141634592082856</v>
+        <v>0.02366396049087251</v>
       </c>
       <c r="E174" t="n">
         <v>42</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2687690692505736</v>
+        <v>0.5343277148512009</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6547471195992137</v>
+        <v>0.3678454588239986</v>
       </c>
       <c r="D175" t="n">
-        <v>0.593254783067154</v>
+        <v>0.09782682632480005</v>
       </c>
       <c r="E175" t="n">
         <v>42</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5184461466128472</v>
+        <v>0.2752022184105287</v>
       </c>
       <c r="C176" t="n">
-        <v>0.02179601783037038</v>
+        <v>0.4629371296576653</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2712237910925622</v>
+        <v>0.2618606519318059</v>
       </c>
       <c r="E176" t="n">
         <v>42</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.9708565212419181</v>
+        <v>0.1952650262313877</v>
       </c>
       <c r="C177" t="n">
-        <v>0.009535100921553796</v>
+        <v>0.6276592883249916</v>
       </c>
       <c r="D177" t="n">
-        <v>0.8670386829308537</v>
+        <v>0.1770756854436205</v>
       </c>
       <c r="E177" t="n">
         <v>42</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.8034868178016797</v>
+        <v>0.1591192924189528</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.3793676503600579</v>
+        <v>0.4599608323627336</v>
       </c>
       <c r="D178" t="n">
-        <v>0.1235976427719071</v>
+        <v>0.3809198752183135</v>
       </c>
       <c r="E178" t="n">
         <v>42</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.1657609202615278</v>
+        <v>0.2425782129954011</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.2833350312466028</v>
+        <v>0.3326549488612286</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.182724345835464</v>
+        <v>0.4247668381433701</v>
       </c>
       <c r="E179" t="n">
         <v>42</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.7338196466959023</v>
+        <v>0.2184867832832278</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.1084107349198711</v>
+        <v>0.4968037153935967</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3272345001657821</v>
+        <v>0.2847095013231754</v>
       </c>
       <c r="E180" t="n">
         <v>42</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.1655250389558976</v>
+        <v>0.2113392295231073</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.3830953356720475</v>
+        <v>0.3147033643480233</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.2846237337423199</v>
+        <v>0.4739574061288694</v>
       </c>
       <c r="E181" t="n">
         <v>42</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.2087329676358566</v>
+        <v>0.2287090747380796</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.3159205222081867</v>
+        <v>0.3419379941861646</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1589582364088752</v>
+        <v>0.4293529310757557</v>
       </c>
       <c r="E182" t="n">
         <v>42</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.3568502963993206</v>
+        <v>0.2124131066447421</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.3225611196312156</v>
+        <v>0.39302816949809</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0141514320572427</v>
+        <v>0.3945587238571683</v>
       </c>
       <c r="E183" t="n">
         <v>42</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.6262121395216808</v>
+        <v>0.2462619037805292</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.0216196375797707</v>
+        <v>0.5220298638988516</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5348069306279691</v>
+        <v>0.231708232320619</v>
       </c>
       <c r="E184" t="n">
         <v>42</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2554279781648123</v>
+        <v>0.4457624015601752</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1402862782716834</v>
+        <v>0.2864797303319342</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1682683381691609</v>
+        <v>0.2677578681078905</v>
       </c>
       <c r="E185" t="n">
         <v>42</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.3382413135362385</v>
+        <v>0.4840679318576704</v>
       </c>
       <c r="C186" t="n">
-        <v>0.219825435807332</v>
+        <v>0.279035799797471</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1533705380493956</v>
+        <v>0.2368962683448586</v>
       </c>
       <c r="E186" t="n">
         <v>42</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.016783947757999</v>
+        <v>0.2159440196787756</v>
       </c>
       <c r="C187" t="n">
-        <v>0.987436926460174</v>
+        <v>0.7006246536444525</v>
       </c>
       <c r="D187" t="n">
-        <v>1.019640531647204</v>
+        <v>0.083431326676772</v>
       </c>
       <c r="E187" t="n">
         <v>43</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.2759229189536065</v>
+        <v>0.3705888110280953</v>
       </c>
       <c r="C188" t="n">
-        <v>0.416501214711545</v>
+        <v>0.5199449684981051</v>
       </c>
       <c r="D188" t="n">
-        <v>0.968903598908086</v>
+        <v>0.1094662204737994</v>
       </c>
       <c r="E188" t="n">
         <v>43</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.8042214961372882</v>
+        <v>0.2428209144793458</v>
       </c>
       <c r="C189" t="n">
-        <v>0.2510684516067319</v>
+        <v>0.6266214451866476</v>
       </c>
       <c r="D189" t="n">
-        <v>0.9836827892919854</v>
+        <v>0.1305576403340065</v>
       </c>
       <c r="E189" t="n">
         <v>43</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2093253097060019</v>
+        <v>0.5275176023820728</v>
       </c>
       <c r="C190" t="n">
-        <v>0.8612925011165594</v>
+        <v>0.4016478942396614</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8259186876763385</v>
+        <v>0.07083450337826572</v>
       </c>
       <c r="E190" t="n">
         <v>43</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.5802850378145314</v>
+        <v>0.6396014164190912</v>
       </c>
       <c r="C191" t="n">
-        <v>1.139737829886846</v>
+        <v>0.3192907116931334</v>
       </c>
       <c r="D191" t="n">
-        <v>1.046800710711781</v>
+        <v>0.04110787188777538</v>
       </c>
       <c r="E191" t="n">
         <v>43</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2989064187479052</v>
+        <v>0.555532852870779</v>
       </c>
       <c r="C192" t="n">
-        <v>0.8968495264167905</v>
+        <v>0.3936807869258238</v>
       </c>
       <c r="D192" t="n">
-        <v>1.180007042324094</v>
+        <v>0.05078636020339702</v>
       </c>
       <c r="E192" t="n">
         <v>43</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4834450297853053</v>
+        <v>0.6154255331594423</v>
       </c>
       <c r="C193" t="n">
-        <v>1.208695277942023</v>
+        <v>0.3501214911463083</v>
       </c>
       <c r="D193" t="n">
-        <v>1.26469415661302</v>
+        <v>0.03445297569424917</v>
       </c>
       <c r="E193" t="n">
         <v>43</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.5044979144530863</v>
+        <v>0.6169816919621105</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9843482203646968</v>
+        <v>0.3087020407820349</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4121554467086629</v>
+        <v>0.07431626725585441</v>
       </c>
       <c r="E194" t="n">
         <v>43</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4588642795101373</v>
+        <v>0.6069786443813542</v>
       </c>
       <c r="C195" t="n">
-        <v>1.137418718975349</v>
+        <v>0.354880500230687</v>
       </c>
       <c r="D195" t="n">
-        <v>1.214295004006587</v>
+        <v>0.03814085538795867</v>
       </c>
       <c r="E195" t="n">
         <v>43</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.6152016078925379</v>
+        <v>0.2876924529219831</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3658569851445858</v>
+        <v>0.6037106283035617</v>
       </c>
       <c r="D196" t="n">
-        <v>1.073843443238775</v>
+        <v>0.1085969187744551</v>
       </c>
       <c r="E196" t="n">
         <v>43</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.1320822151379855</v>
+        <v>0.2559899332632083</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.2462836294861041</v>
+        <v>0.3333054017840066</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.1677437572180424</v>
+        <v>0.4107046649527848</v>
       </c>
       <c r="E197" t="n">
         <v>43</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.6217568448134714</v>
+        <v>0.6528495139639205</v>
       </c>
       <c r="C198" t="n">
-        <v>1.167794150394093</v>
+        <v>0.313498479734222</v>
       </c>
       <c r="D198" t="n">
-        <v>1.236452671467849</v>
+        <v>0.03365200630185736</v>
       </c>
       <c r="E198" t="n">
         <v>43</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.2418299640693419</v>
+        <v>0.3908130130208434</v>
       </c>
       <c r="C199" t="n">
-        <v>0.5450957589868864</v>
+        <v>0.518031229436236</v>
       </c>
       <c r="D199" t="n">
-        <v>1.027077101758841</v>
+        <v>0.09115575754292075</v>
       </c>
       <c r="E199" t="n">
         <v>43</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.6616360357432153</v>
+        <v>0.2713318215242165</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2621854079235583</v>
+        <v>0.5979869619089254</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9674842590142335</v>
+        <v>0.1306812165668581</v>
       </c>
       <c r="E200" t="n">
         <v>43</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.6770701109545813</v>
+        <v>0.6679161256658023</v>
       </c>
       <c r="C201" t="n">
-        <v>1.249541773649564</v>
+        <v>0.297733289553742</v>
       </c>
       <c r="D201" t="n">
-        <v>1.11258854148649</v>
+        <v>0.03435058478045584</v>
       </c>
       <c r="E201" t="n">
         <v>43</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.6979467548611502</v>
+        <v>0.6663860162754294</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7807421299612108</v>
+        <v>0.2343640924050749</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.09568652812031071</v>
+        <v>0.09924989131949571</v>
       </c>
       <c r="E202" t="n">
         <v>43</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.5552344627669774</v>
+        <v>0.2923965523086032</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2196019799189878</v>
+        <v>0.5335226091816836</v>
       </c>
       <c r="D203" t="n">
-        <v>0.6173319135711939</v>
+        <v>0.1740808385097131</v>
       </c>
       <c r="E203" t="n">
         <v>43</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.416526704576158</v>
+        <v>0.2077102566701678</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.321729124916193</v>
+        <v>0.3851700406183791</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.04681745466675891</v>
+        <v>0.4071197027114529</v>
       </c>
       <c r="E204" t="n">
         <v>43</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.7535685857665644</v>
+        <v>0.207515816959745</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.1542971533142486</v>
+        <v>0.4938997220958867</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3057654832159045</v>
+        <v>0.2985844609443682</v>
       </c>
       <c r="E205" t="n">
         <v>43</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0.6878190560051749</v>
+        <v>0.6162268828041846</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4509087034123125</v>
+        <v>0.2195408297552661</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.2790383782977688</v>
+        <v>0.1642322874405494</v>
       </c>
       <c r="E206" t="n">
         <v>43</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.5936128091668542</v>
+        <v>0.2883380587796171</v>
       </c>
       <c r="C207" t="n">
-        <v>0.2995729840109869</v>
+        <v>0.5851004275380191</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9583429523615611</v>
+        <v>0.1265615136823639</v>
       </c>
       <c r="E207" t="n">
         <v>43</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.1264206318903971</v>
+        <v>0.404291612931611</v>
       </c>
       <c r="C208" t="n">
-        <v>0.08696344671911826</v>
+        <v>0.3140590506199697</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.09472128420779508</v>
+        <v>0.2816493364484191</v>
       </c>
       <c r="E208" t="n">
         <v>43</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.7622170628462053</v>
+        <v>0.690037259552701</v>
       </c>
       <c r="C209" t="n">
-        <v>1.314812525619347</v>
+        <v>0.2745084676642698</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9687936837379146</v>
+        <v>0.03545427278302921</v>
       </c>
       <c r="E209" t="n">
         <v>43</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.2062456420064375</v>
+        <v>0.2228234910901792</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.3357193773961181</v>
+        <v>0.3362043084394414</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.1891285990955826</v>
+        <v>0.4409722004703792</v>
       </c>
       <c r="E210" t="n">
         <v>44</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.312931586303056</v>
+        <v>0.1992573398997312</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.3887705107670121</v>
+        <v>0.3590278070752556</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.1318082229079687</v>
+        <v>0.4417148530250132</v>
       </c>
       <c r="E211" t="n">
         <v>44</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.06934359566864598</v>
+        <v>0.258645891353541</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.2613391667709655</v>
+        <v>0.3051203464663251</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.2810501412078523</v>
+        <v>0.4362337621801339</v>
       </c>
       <c r="E212" t="n">
         <v>44</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.3628167599179905</v>
+        <v>0.2314943566181881</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.2531552782789138</v>
+        <v>0.4134694895162969</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1275097444252269</v>
+        <v>0.3550361538655149</v>
       </c>
       <c r="E213" t="n">
         <v>44</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.215433591762044</v>
+        <v>0.7871134838404849</v>
       </c>
       <c r="C214" t="n">
-        <v>1.167088995490533</v>
+        <v>0.1755846611490084</v>
       </c>
       <c r="D214" t="n">
-        <v>0.6194867959002541</v>
+        <v>0.03730185501050655</v>
       </c>
       <c r="E214" t="n">
         <v>44</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8723352718537749</v>
+        <v>0.7166424802863084</v>
       </c>
       <c r="C215" t="n">
-        <v>1.104968951519103</v>
+        <v>0.223473133541351</v>
       </c>
       <c r="D215" t="n">
-        <v>0.2346583340376253</v>
+        <v>0.05988438617234095</v>
       </c>
       <c r="E215" t="n">
         <v>44</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.2138998260663651</v>
+        <v>0.2049327632462037</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.3926783983945022</v>
+        <v>0.3239673718187773</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.2601351190042924</v>
+        <v>0.4710998649350193</v>
       </c>
       <c r="E216" t="n">
         <v>44</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.019732849681853</v>
+        <v>0.7320565986351018</v>
       </c>
       <c r="C217" t="n">
-        <v>0.8333472369462572</v>
+        <v>0.1948027106108534</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2041501857491384</v>
+        <v>0.0731406907540446</v>
       </c>
       <c r="E217" t="n">
         <v>44</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.374753747792245</v>
+        <v>0.8048010643423772</v>
       </c>
       <c r="C218" t="n">
-        <v>0.9155524565865344</v>
+        <v>0.1362576857947477</v>
       </c>
       <c r="D218" t="n">
-        <v>0.04591921751305986</v>
+        <v>0.05894124986287511</v>
       </c>
       <c r="E218" t="n">
         <v>44</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5079348956133206</v>
+        <v>0.6203538547752686</v>
       </c>
       <c r="C219" t="n">
-        <v>1.08124827952865</v>
+        <v>0.3429102387931459</v>
       </c>
       <c r="D219" t="n">
-        <v>1.278961043452397</v>
+        <v>0.03673590643158536</v>
       </c>
       <c r="E219" t="n">
         <v>44</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5450924407068271</v>
+        <v>0.600945776396297</v>
       </c>
       <c r="C220" t="n">
-        <v>0.5944410700867405</v>
+        <v>0.2817086367304158</v>
       </c>
       <c r="D220" t="n">
-        <v>0.2216961855480025</v>
+        <v>0.1173455868732873</v>
       </c>
       <c r="E220" t="n">
         <v>44</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.3574041325948792</v>
+        <v>0.2083742017627479</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.3390278996445893</v>
+        <v>0.3978787257021421</v>
       </c>
       <c r="D221" t="n">
-        <v>0.03533578767378018</v>
+        <v>0.3937470725351102</v>
       </c>
       <c r="E221" t="n">
         <v>44</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.8977970914248827</v>
+        <v>0.2356775006719136</v>
       </c>
       <c r="C222" t="n">
-        <v>0.2789821567899752</v>
+        <v>0.5958271491736316</v>
       </c>
       <c r="D222" t="n">
-        <v>0.6185584046092757</v>
+        <v>0.1684953501544548</v>
       </c>
       <c r="E222" t="n">
         <v>44</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.02218932594306819</v>
+        <v>0.3516452740145736</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.02316366365382616</v>
+        <v>0.3534073987125296</v>
       </c>
       <c r="D223" t="n">
-        <v>0.1054584284354003</v>
+        <v>0.2949473272728966</v>
       </c>
       <c r="E223" t="n">
         <v>44</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.01223202805645</v>
+        <v>0.7184816522448531</v>
       </c>
       <c r="C224" t="n">
-        <v>0.67429146936814</v>
+        <v>0.1759104860343506</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.2414091106326903</v>
+        <v>0.1056078617207965</v>
       </c>
       <c r="E224" t="n">
         <v>44</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.5004633236112644</v>
+        <v>0.5554435815562233</v>
       </c>
       <c r="C225" t="n">
-        <v>0.3861907305119791</v>
+        <v>0.2780223248070887</v>
       </c>
       <c r="D225" t="n">
-        <v>0.09975789636761223</v>
+        <v>0.1665340936366878</v>
       </c>
       <c r="E225" t="n">
         <v>44</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.06809230332507954</v>
+        <v>0.2489888213830032</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.2900585519352225</v>
+        <v>0.3028339537595475</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.2940995249706959</v>
+        <v>0.4481772248574493</v>
       </c>
       <c r="E226" t="n">
         <v>44</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.2702060582548882</v>
+        <v>0.2524980229734181</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.2120169699738175</v>
+        <v>0.3953994445302396</v>
       </c>
       <c r="D227" t="n">
-        <v>0.09187204224508411</v>
+        <v>0.3521025324963425</v>
       </c>
       <c r="E227" t="n">
         <v>44</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.03675889523266718</v>
+        <v>0.443810308079699</v>
       </c>
       <c r="C228" t="n">
-        <v>0.5306497544855434</v>
+        <v>0.4583692015587726</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9091822702199656</v>
+        <v>0.0978204903615283</v>
       </c>
       <c r="E228" t="n">
         <v>44</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>0.9819802261178321</v>
+        <v>0.7319994373055321</v>
       </c>
       <c r="C229" t="n">
-        <v>0.9763964753288773</v>
+        <v>0.2212872694699387</v>
       </c>
       <c r="D229" t="n">
-        <v>0.7805876238628279</v>
+        <v>0.04671329322452948</v>
       </c>
       <c r="E229" t="n">
         <v>44</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.9329524050229893</v>
+        <v>0.2460415508595507</v>
       </c>
       <c r="C230" t="n">
-        <v>0.5585398409100549</v>
+        <v>0.6008327308179943</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4767954350785518</v>
+        <v>0.153125718322455</v>
       </c>
       <c r="E230" t="n">
         <v>44</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.2087333980607391</v>
+        <v>0.2287090339056757</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.3159205373812984</v>
+        <v>0.341938138204637</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1589577127813095</v>
+        <v>0.4293528278896872</v>
       </c>
       <c r="E231" t="n">
         <v>44</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.208733000284151</v>
+        <v>0.2287083563323438</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.3159228538457182</v>
+        <v>0.3419374673027207</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.1589611978722931</v>
+        <v>0.4293541763649354</v>
       </c>
       <c r="E232" t="n">
         <v>44</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.1798954787529821</v>
+        <v>0.27141700707091</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.191265837176818</v>
+        <v>0.3875002731521051</v>
       </c>
       <c r="D233" t="n">
-        <v>0.1249534245398483</v>
+        <v>0.3410827197769846</v>
       </c>
       <c r="E233" t="n">
         <v>44</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.2069769147621676</v>
+        <v>0.1445742901361353</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.6179749637801361</v>
+        <v>0.2777634079054321</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.5040026885366093</v>
+        <v>0.5776623019584325</v>
       </c>
       <c r="E234" t="n">
         <v>44</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2177036846168414</v>
+        <v>0.2278936837597922</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.3161355550793785</v>
+        <v>0.3450973028127242</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1472523081991167</v>
+        <v>0.4270090134274833</v>
       </c>
       <c r="E235" t="n">
         <v>44</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.197056235779681</v>
+        <v>0.1936099255195562</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.4360869253435269</v>
+        <v>0.3145722777669899</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.3040384544196862</v>
+        <v>0.4918177967134537</v>
       </c>
       <c r="E236" t="n">
         <v>44</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>0.2814334431520175</v>
+        <v>0.5395378266298942</v>
       </c>
       <c r="C237" t="n">
-        <v>0.6583568041973207</v>
+        <v>0.353642848992084</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4276008065392253</v>
+        <v>0.1068193243780219</v>
       </c>
       <c r="E237" t="n">
         <v>44</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>0.1062548755593674</v>
+        <v>0.4130208053478003</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1323587141872885</v>
+        <v>0.3410236104238981</v>
       </c>
       <c r="D238" t="n">
-        <v>0.09734905680495592</v>
+        <v>0.2459555842283013</v>
       </c>
       <c r="E238" t="n">
         <v>44</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.4711110009079008</v>
+        <v>0.1202087137440873</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.690320803678639</v>
+        <v>0.3251731317870561</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.3722656233401954</v>
+        <v>0.5546181544688567</v>
       </c>
       <c r="E239" t="n">
         <v>44</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.2361072336643888</v>
+        <v>0.1844887735621402</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.4614202751646566</v>
+        <v>0.3238891519418607</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.2771049764732937</v>
+        <v>0.4916220744959989</v>
       </c>
       <c r="E240" t="n">
         <v>44</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.2189466507622445</v>
+        <v>0.5223241079282381</v>
       </c>
       <c r="C241" t="n">
-        <v>0.6078794048028734</v>
+        <v>0.3524546886884091</v>
       </c>
       <c r="D241" t="n">
-        <v>0.2602629610481317</v>
+        <v>0.1252212033833527</v>
       </c>
       <c r="E241" t="n">
         <v>44</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0.1062024413040867</v>
+        <v>0.4703581502942379</v>
       </c>
       <c r="C242" t="n">
-        <v>0.4385320048498998</v>
+        <v>0.3821234359743187</v>
       </c>
       <c r="D242" t="n">
-        <v>0.3656786179501115</v>
+        <v>0.1475184137314432</v>
       </c>
       <c r="E242" t="n">
         <v>44</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6309884113466383</v>
+        <v>0.6322351132511267</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6678519396499155</v>
+        <v>0.2590882444284298</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1140300654506885</v>
+        <v>0.1086766423204434</v>
       </c>
       <c r="E243" t="n">
         <v>44</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0.8281403786606798</v>
+        <v>0.6926148509906671</v>
       </c>
       <c r="C244" t="n">
-        <v>0.8477291465393831</v>
+        <v>0.2294947684374885</v>
       </c>
       <c r="D244" t="n">
-        <v>0.2171709964851528</v>
+        <v>0.07789038057184436</v>
       </c>
       <c r="E244" t="n">
         <v>44</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.4825618299400553</v>
+        <v>0.2145894150801545</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.2810918774817522</v>
+        <v>0.5097447008807559</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5567374902947894</v>
+        <v>0.2756658840390899</v>
       </c>
       <c r="E245" t="n">
         <v>44</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.1961666693369966</v>
+        <v>0.2340176085592338</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.3022020224013564</v>
+        <v>0.3407296192369373</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1574995998528071</v>
+        <v>0.4252527722038286</v>
       </c>
       <c r="E246" t="n">
         <v>44</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0.02924517057265927</v>
+        <v>0.37516276067569</v>
       </c>
       <c r="C247" t="n">
-        <v>0.04776851225911327</v>
+        <v>0.3439606157749469</v>
       </c>
       <c r="D247" t="n">
-        <v>0.03671314149604393</v>
+        <v>0.2808766235493626</v>
       </c>
       <c r="E247" t="n">
         <v>44</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.7880852832847459</v>
+        <v>0.6934099840649329</v>
       </c>
       <c r="C248" t="n">
-        <v>0.8733366635745355</v>
+        <v>0.2214462021829093</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.05999502113409455</v>
+        <v>0.08514381375215797</v>
       </c>
       <c r="E248" t="n">
         <v>44</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.5845607197907474</v>
+        <v>0.15590438632057</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.4939241074963487</v>
+        <v>0.4348964740468058</v>
       </c>
       <c r="D249" t="n">
-        <v>0.08048222297720389</v>
+        <v>0.4091991396326243</v>
       </c>
       <c r="E249" t="n">
         <v>45</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0.8156698618464999</v>
+        <v>0.666014565695062</v>
       </c>
       <c r="C250" t="n">
-        <v>0.6028306768781782</v>
+        <v>0.2157538842333761</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.04446773938642451</v>
+        <v>0.1182315500715618</v>
       </c>
       <c r="E250" t="n">
         <v>45</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.6615902932539318</v>
+        <v>0.2882935315563783</v>
       </c>
       <c r="C251" t="n">
-        <v>0.4255977103875478</v>
+        <v>0.5639638092313571</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5940946050120485</v>
+        <v>0.1477426592122646</v>
       </c>
       <c r="E251" t="n">
         <v>45</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.5266501704395624</v>
+        <v>0.6180590421871266</v>
       </c>
       <c r="C252" t="n">
-        <v>0.8959765624049797</v>
+        <v>0.3068556592240101</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4874445092518089</v>
+        <v>0.0750852985888633</v>
       </c>
       <c r="E252" t="n">
         <v>45</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.1771157632541361</v>
+        <v>0.226181630355325</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.3331793753364579</v>
+        <v>0.3320054618613203</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.1960245331976873</v>
+        <v>0.4418129077833547</v>
       </c>
       <c r="E253" t="n">
         <v>45</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.7846955504898805</v>
+        <v>0.6843496432882842</v>
       </c>
       <c r="C254" t="n">
-        <v>0.8319587660786759</v>
+        <v>0.2308655745624652</v>
       </c>
       <c r="D254" t="n">
-        <v>0.09517733223341046</v>
+        <v>0.08478478214925061</v>
       </c>
       <c r="E254" t="n">
         <v>45</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.4145131086972347</v>
+        <v>0.2113805224113463</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.3106502854945049</v>
+        <v>0.4222618169688334</v>
       </c>
       <c r="D255" t="n">
-        <v>0.1331226390160374</v>
+        <v>0.3663576606198204</v>
       </c>
       <c r="E255" t="n">
         <v>45</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.3044294092550829</v>
+        <v>0.2173104800220707</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.322621846146026</v>
+        <v>0.3827049617055863</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.01004140499595438</v>
+        <v>0.3999845582723426</v>
       </c>
       <c r="E256" t="n">
         <v>45</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.1708077728844821</v>
+        <v>0.3958850088656378</v>
       </c>
       <c r="C257" t="n">
-        <v>0.4095002850267558</v>
+        <v>0.4838033454015616</v>
       </c>
       <c r="D257" t="n">
-        <v>0.8284652395921253</v>
+        <v>0.1203116457328005</v>
       </c>
       <c r="E257" t="n">
         <v>45</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.5067041309002791</v>
+        <v>0.1912375240091938</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.3589586831502178</v>
+        <v>0.4621614517625053</v>
       </c>
       <c r="D258" t="n">
-        <v>0.2636830773060575</v>
+        <v>0.3466010242283009</v>
       </c>
       <c r="E258" t="n">
         <v>45</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-1.013252036560444</v>
+        <v>0.1594053826888467</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.2480548629236595</v>
+        <v>0.5719680718734436</v>
       </c>
       <c r="D259" t="n">
-        <v>0.5420311038828558</v>
+        <v>0.2686265454377098</v>
       </c>
       <c r="E259" t="n">
         <v>45</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.028782393030179</v>
+        <v>0.6995452804486736</v>
       </c>
       <c r="C260" t="n">
-        <v>0.5320484065476487</v>
+        <v>0.1633356453108427</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.4171483821810811</v>
+        <v>0.1371190742404839</v>
       </c>
       <c r="E260" t="n">
         <v>45</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.1433759405682309</v>
+        <v>0.5075920756266157</v>
       </c>
       <c r="C261" t="n">
-        <v>0.7948551785784278</v>
+        <v>0.4060429147449994</v>
       </c>
       <c r="D261" t="n">
-        <v>0.6534869870108336</v>
+        <v>0.08636500962838463</v>
       </c>
       <c r="E261" t="n">
         <v>45</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.5990118980586656</v>
+        <v>0.5783691534028621</v>
       </c>
       <c r="C262" t="n">
-        <v>0.3772497395873715</v>
+        <v>0.2376069212428266</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.2071938688929757</v>
+        <v>0.1840239253543112</v>
       </c>
       <c r="E262" t="n">
         <v>45</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.2218057227908483</v>
+        <v>0.2163355583652822</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.3533380556664848</v>
+        <v>0.338470985888182</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.1868399753507982</v>
+        <v>0.4451934557465356</v>
       </c>
       <c r="E263" t="n">
         <v>45</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.06703374635535622</v>
+        <v>0.4507991778021757</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9945130868996394</v>
+        <v>0.5033123942516156</v>
       </c>
       <c r="D264" t="n">
-        <v>1.361579105674442</v>
+        <v>0.04588842794620877</v>
       </c>
       <c r="E264" t="n">
         <v>45</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.1937816249100879</v>
+        <v>0.5245589882105252</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9043617241647836</v>
+        <v>0.4173091979299441</v>
       </c>
       <c r="D265" t="n">
-        <v>1.048372366349313</v>
+        <v>0.05813181385953099</v>
       </c>
       <c r="E265" t="n">
         <v>45</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.3036973565769633</v>
+        <v>0.3387732531776316</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1808324717454056</v>
+        <v>0.4650553323984748</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4704597870600407</v>
+        <v>0.1961714144238933</v>
       </c>
       <c r="E266" t="n">
         <v>45</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.2077987626626918</v>
+        <v>0.2219845959533709</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.3382269707965458</v>
+        <v>0.337070137469907</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.1856741761350109</v>
+        <v>0.4409452665767221</v>
       </c>
       <c r="E267" t="n">
         <v>45</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.6033871462613254</v>
+        <v>0.6450288697426212</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9850437231110721</v>
+        <v>0.3190514131647585</v>
       </c>
       <c r="D268" t="n">
-        <v>1.375475726204008</v>
+        <v>0.03591971709262027</v>
       </c>
       <c r="E268" t="n">
         <v>45</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.3075603342966297</v>
+        <v>0.3833993300628922</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7717594588390403</v>
+        <v>0.5209117402044893</v>
       </c>
       <c r="D269" t="n">
-        <v>0.7438833671989574</v>
+        <v>0.0956889297326188</v>
       </c>
       <c r="E269" t="n">
         <v>45</v>
